--- a/mbs-perturbation/bottleneck/elm/nearmiss/bottleneck_elm_lin_nearmiss_results.xlsx
+++ b/mbs-perturbation/bottleneck/elm/nearmiss/bottleneck_elm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.55</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6153846153846153</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7838235294117646</v>
+        <v>0.8035714285714286</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7272727272727274</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7573529411764706</v>
+        <v>0.7326388888888888</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.7368421052631577</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8157894736842106</v>
+        <v>0.828719723183391</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.6875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6323529411764706</v>
+        <v>0.7673611111111112</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5454545454545455</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="E6" t="n">
-        <v>0.61875</v>
+        <v>0.8946428571428572</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8222832722832722</v>
+        <v>0.6458868184955142</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5080392156862745</v>
+        <v>0.7837931839402427</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6187988482106129</v>
+        <v>0.7069671442628458</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7216137770897832</v>
+        <v>0.8053868017795354</v>
       </c>
     </row>
   </sheetData>
